--- a/DC_Lab6.xlsx
+++ b/DC_Lab6.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\dc\dc-lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B6EC1-4ACF-487B-96E1-92E6702666A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7080C1D-7F62-439C-A74C-968085BBAC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>The Execution Time of Basic Computational Operation τ (sec):</t>
   </si>
@@ -61,6 +62,30 @@
   </si>
   <si>
     <t>τ</t>
+  </si>
+  <si>
+    <t>Grid Size</t>
+  </si>
+  <si>
+    <t>Serial Algorithm</t>
+  </si>
+  <si>
+    <t>Parallel Algorithm</t>
+  </si>
+  <si>
+    <t>2 processors</t>
+  </si>
+  <si>
+    <t>4 processors</t>
+  </si>
+  <si>
+    <t>8 processors</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Speed Up</t>
   </si>
 </sst>
 </file>
@@ -111,12 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -415,156 +443,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>F3*$G$6</f>
         <v>9.5439999999999987E-6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>6*B3*B3</f>
         <v>600</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1.11E-4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D8" si="0">F4*$G$6</f>
         <v>9.5439999999999989E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F8" si="1">6*B4*B4</f>
         <v>60000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.0569E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>9.5439999999999997E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.38175999999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.38175999999999999</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>24000000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>C6/F6</f>
         <v>1.5906666666666666E-8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3000</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>8.4291000000000005E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.85895999999999995</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>54000000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>4000</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.14562700000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>1.52704</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>96000000</v>
       </c>
@@ -575,4 +603,452 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6E74B4-9B62-41CE-B55E-199A0830B3E7}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.1E-5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>C4/E4</f>
+        <v>0.65853658536585358</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.04E-4</v>
+      </c>
+      <c r="H4" s="1">
+        <f>C4/G4</f>
+        <v>0.13235294117647059</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9.7E-5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D15" si="0">B5/C5</f>
+        <v>0.51595744680851063</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.66E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F15" si="1">C5/E5</f>
+        <v>1.1325301204819276</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.24E-4</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H15" si="2">C5/G5</f>
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.4059999999999994E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.9602999999999999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47982451665561393</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.2366E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5852337053210415</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.11164</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17559118595485487</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.8418000000000001E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.1811E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53498767598278818</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.9069000000000002E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4634698078216388</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.1442E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7328072969451283</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.5951E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.166243</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51702026551493896</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.122154</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3609296461843248</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.6771000000000001E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9158820343202223</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.14433499999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.28916799999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49913890886958445</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.18809200000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.537375326967654</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.15912799999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.817203760494696</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.22644700000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.44129000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51314781662852094</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.32207799999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.37013394270953</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.232017</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.901972700276273</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.328125</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.62206499999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52747703214294328</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.39733200000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.565605085923107</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.33230999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8719418615148506</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.43812000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.84585500000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5179611162669725</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.57431900000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4727964772191064</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.43749100000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.933422630408397</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.61171600000000004</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.09016</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56112497248110371</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.1323650000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96272844886586917</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.81715599999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3340904307133521</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.75974600000000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.3995310000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54285757157219094</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.890316</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.57194861150423</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.82744600000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6913865073974617</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.94854899999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.8732740000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50635892026473428</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.1215333000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6702794290637648</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.82808899999999996</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2621650571375786</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>